--- a/storage/app/public/批量添加学生模版.xlsx
+++ b/storage/app/public/批量添加学生模版.xlsx
@@ -7,49 +7,86 @@
     <workbookView windowWidth="28000" windowHeight="11720"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="导入表格" sheetId="1" r:id="rId1"/>
+    <sheet name="说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
-  <si>
-    <t>姓名（必填）</t>
-  </si>
-  <si>
-    <t>性别（1男、2女 必填）</t>
-  </si>
-  <si>
-    <t>出生年月（必填）</t>
-  </si>
-  <si>
-    <t>学号（必填）</t>
-  </si>
-  <si>
-    <t>身份证号（必填）</t>
-  </si>
-  <si>
-    <t>年级（必填）</t>
-  </si>
-  <si>
-    <t>班级（必填）</t>
-  </si>
-  <si>
-    <t>是否近视（0否，1是 必填）</t>
-  </si>
-  <si>
-    <t>是否佩戴眼镜（0否，1是 必填）</t>
-  </si>
-  <si>
-    <t>眼镜类型（0普通眼镜，1隐形眼镜 佩戴眼镜时必填）</t>
-  </si>
-  <si>
-    <t>左眼度数（佩戴眼镜时必填）</t>
-  </si>
-  <si>
-    <t>右眼度数（佩戴眼镜时必填）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>身份证</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>出生年月日</t>
+  </si>
+  <si>
+    <t>入学年份</t>
+  </si>
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>年级</t>
+  </si>
+  <si>
+    <t>班级</t>
+  </si>
+  <si>
+    <t>是否近视</t>
+  </si>
+  <si>
+    <t>是否佩戴眼镜</t>
+  </si>
+  <si>
+    <t>眼镜类型</t>
+  </si>
+  <si>
+    <t>左眼度数</t>
+  </si>
+  <si>
+    <t>右眼度数</t>
+  </si>
+  <si>
+    <t>标红处为必填项</t>
+  </si>
+  <si>
+    <t>姓名最多可填 12 个字符</t>
+  </si>
+  <si>
+    <t>请填写正确的身份证证格式</t>
+  </si>
+  <si>
+    <t>性别只能填 男 或 女</t>
+  </si>
+  <si>
+    <t>出生年月日的格式为 yyyy-mm-dd, 如：2021-03-01</t>
+  </si>
+  <si>
+    <t>入学年份正确格式为 yyyy, 如：2021</t>
+  </si>
+  <si>
+    <t>学号仅支持阿拉伯数字</t>
+  </si>
+  <si>
+    <t>是否近视仅支持填写 是 或 否</t>
+  </si>
+  <si>
+    <t>是否佩戴眼镜仅支持填写 是 或 否</t>
+  </si>
+  <si>
+    <t>当是否佩戴眼镜选择为 是 时，眼镜类型必填，仅支持填写 普通眼镜 或 隐形眼镜</t>
+  </si>
+  <si>
+    <t>眼镜类型 仅支持填写 普通眼镜 或 隐形眼镜</t>
   </si>
 </sst>
 </file>
@@ -57,12 +94,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,6 +108,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -92,9 +136,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,59 +146,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,9 +159,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,9 +198,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,15 +244,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,187 +268,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,17 +471,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,13 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,33 +536,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,156 +564,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -994,64 +1044,143 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="19.4910714285714" customWidth="1"/>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.1517857142857" customWidth="1"/>
-    <col min="5" max="5" width="18.7410714285714" customWidth="1"/>
-    <col min="6" max="6" width="17.5535714285714" customWidth="1"/>
-    <col min="7" max="7" width="16.5178571428571" customWidth="1"/>
-    <col min="8" max="8" width="31.5446428571429" customWidth="1"/>
-    <col min="9" max="9" width="33.7767857142857" customWidth="1"/>
-    <col min="10" max="10" width="52.6696428571429" customWidth="1"/>
-    <col min="11" max="11" width="33.7767857142857" customWidth="1"/>
-    <col min="12" max="12" width="29.1607142857143" customWidth="1"/>
+    <col min="1" max="1" width="13.9910714285714" customWidth="1"/>
+    <col min="2" max="2" width="17.1071428571429" customWidth="1"/>
+    <col min="3" max="3" width="13.2410714285714" customWidth="1"/>
+    <col min="4" max="4" width="15.9196428571429" customWidth="1"/>
+    <col min="5" max="5" width="15.7589285714286" customWidth="1"/>
+    <col min="6" max="6" width="13.9821428571429" customWidth="1"/>
+    <col min="7" max="7" width="11.5982142857143" customWidth="1"/>
+    <col min="8" max="8" width="18.5982142857143" customWidth="1"/>
+    <col min="9" max="9" width="20.9821428571429" customWidth="1"/>
+    <col min="10" max="10" width="24.1071428571429" customWidth="1"/>
+    <col min="11" max="11" width="17.5535714285714" customWidth="1"/>
+    <col min="12" max="12" width="18.5982142857143" customWidth="1"/>
+    <col min="13" max="13" width="14.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:12">
+    <row r="1" s="2" customFormat="1" ht="36" spans="1:13">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <cols>
+    <col min="1" max="1" width="87.6517857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="25" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="25" customHeight="1" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="25" customHeight="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="25" customHeight="1" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="25" customHeight="1" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="25" customHeight="1" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="25" customHeight="1" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="25" customHeight="1" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="25" customHeight="1" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="25" customHeight="1" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="25" customHeight="1" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/public/批量添加学生模版.xlsx
+++ b/storage/app/public/批量添加学生模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="11080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>姓名</t>
   </si>
@@ -197,12 +197,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -212,6 +212,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -219,7 +264,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,52 +279,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,9 +293,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,68 +347,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="方正书宋_GBK"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -375,187 +364,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,6 +555,33 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -580,39 +596,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,9 +617,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,222 +655,214 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1137,24 +1129,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
-    <col min="4" max="4" width="12.95" customWidth="1"/>
+    <col min="2" max="2" width="9.14285714285714" style="1"/>
+    <col min="4" max="4" width="12.9464285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1193,19 +1186,19 @@
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1299">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1298">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1299">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1298">
       <formula1>"2009,2010,2011,2012,2013,2014,2015,2016,2017,2018,2019,2020,2021"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1299">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1298">
       <formula1>"正常,近视,远视"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1299">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1298">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1299">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1298">
       <formula1>"普通眼镜,隐形眼镜"</formula1>
     </dataValidation>
   </dataValidations>

--- a/storage/app/public/批量添加学生模版.xlsx
+++ b/storage/app/public/批量添加学生模版.xlsx
@@ -39,7 +39,7 @@
             <rFont val="方正书宋_GBK"/>
             <charset val="134"/>
           </rPr>
-          <t>请填写学生在全国的唯一学籍号。</t>
+          <t>请填写学生学号，最多 32 位</t>
         </r>
       </text>
     </comment>
@@ -197,8 +197,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -212,6 +212,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -219,25 +320,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,14 +342,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,91 +350,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,13 +364,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,7 +496,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,157 +538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,26 +561,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,17 +608,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,153 +631,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
